--- a/data/output.xlsx
+++ b/data/output.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angie\Documents\cmufinalsplanner.github.io-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angie\Documents\cmufinalsplanner.github.io-main\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE9F154-D24E-4AA6-B750-36EE8F3E8782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D4E057-8126-4B64-A5DF-74F6ECBEC396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3830,18 +3830,6 @@
     <t>University Studies</t>
   </si>
   <si>
-    <t>01:00pm- 04:00pm</t>
-  </si>
-  <si>
-    <t>08:30am- 11:30am</t>
-  </si>
-  <si>
-    <t>05:30pm- 08:30pm</t>
-  </si>
-  <si>
-    <t>12:00pm- 04:00pm</t>
-  </si>
-  <si>
     <t>TBA</t>
   </si>
   <si>
@@ -4833,6 +4821,18 @@
   </si>
   <si>
     <t>ZETLIN-JONES ARIEL azj, SHI RUNTING rshi</t>
+  </si>
+  <si>
+    <t>01:00pm-04:00pm</t>
+  </si>
+  <si>
+    <t>08:30am-11:30am</t>
+  </si>
+  <si>
+    <t>05:30pm-08:30pm</t>
+  </si>
+  <si>
+    <t>12:00pm-04:00pm</t>
   </si>
 </sst>
 </file>
@@ -5240,8 +5240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X511"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1:X1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A482" workbookViewId="0">
+      <selection activeCell="E486" sqref="E486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5269,7 +5269,7 @@
       <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
@@ -5300,13 +5300,13 @@
         <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E2" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F2" t="str">
         <f>IFERROR(LEFT(X2, SEARCH("2025", X2) + 3), X2)</f>
@@ -5340,13 +5340,13 @@
         <v>16</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E3" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F66" si="0">IFERROR(LEFT(X3, SEARCH("2025", X3) + 3), X3)</f>
@@ -5380,13 +5380,13 @@
         <v>22</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E4" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
@@ -5420,13 +5420,13 @@
         <v>26</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E5" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
@@ -5460,13 +5460,13 @@
         <v>32</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E6" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
@@ -5500,13 +5500,13 @@
         <v>35</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E7" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
@@ -5540,13 +5540,13 @@
         <v>35</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E8" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
@@ -5580,13 +5580,13 @@
         <v>39</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E9" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
@@ -5620,13 +5620,13 @@
         <v>39</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E10" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
@@ -5660,13 +5660,13 @@
         <v>46</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E11" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
@@ -5700,13 +5700,13 @@
         <v>46</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E12" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
@@ -5740,13 +5740,13 @@
         <v>46</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E13" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
@@ -5780,13 +5780,13 @@
         <v>52</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E14" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
@@ -5820,13 +5820,13 @@
         <v>56</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E15" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
@@ -5860,13 +5860,13 @@
         <v>58</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E16" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
@@ -5900,13 +5900,13 @@
         <v>61</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E17" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
@@ -5940,13 +5940,13 @@
         <v>63</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E18" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
@@ -5980,13 +5980,13 @@
         <v>68</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E19" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
@@ -6020,13 +6020,13 @@
         <v>71</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E20" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
@@ -6060,13 +6060,13 @@
         <v>75</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E21" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
@@ -6100,13 +6100,13 @@
         <v>78</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E22" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
@@ -6140,13 +6140,13 @@
         <v>81</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E23" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
@@ -6180,13 +6180,13 @@
         <v>84</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E24" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
@@ -6220,13 +6220,13 @@
         <v>87</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E25" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
@@ -6260,13 +6260,13 @@
         <v>90</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E26" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
@@ -6300,13 +6300,13 @@
         <v>93</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E27" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
@@ -6340,13 +6340,13 @@
         <v>95</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E28" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
@@ -6380,13 +6380,13 @@
         <v>99</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E29" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
@@ -6420,13 +6420,13 @@
         <v>102</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E30" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
@@ -6460,13 +6460,13 @@
         <v>104</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E31" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
@@ -6500,13 +6500,13 @@
         <v>108</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E32" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
@@ -6540,13 +6540,13 @@
         <v>112</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E33" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
@@ -6580,13 +6580,13 @@
         <v>115</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E34" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
@@ -6620,13 +6620,13 @@
         <v>112</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E35" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
@@ -6660,13 +6660,13 @@
         <v>119</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E36" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
@@ -6700,13 +6700,13 @@
         <v>119</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E37" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
@@ -6740,13 +6740,13 @@
         <v>119</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E38" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
@@ -6780,13 +6780,13 @@
         <v>119</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E39" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
@@ -6820,13 +6820,13 @@
         <v>124</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E40" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="0"/>
@@ -6860,13 +6860,13 @@
         <v>124</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E41" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
@@ -6900,13 +6900,13 @@
         <v>124</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E42" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
@@ -6940,13 +6940,13 @@
         <v>124</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E43" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="0"/>
@@ -6980,13 +6980,13 @@
         <v>131</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E44" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="0"/>
@@ -7020,13 +7020,13 @@
         <v>134</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E45" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="0"/>
@@ -7060,13 +7060,13 @@
         <v>136</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E46" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="0"/>
@@ -7100,13 +7100,13 @@
         <v>136</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E47" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="0"/>
@@ -7140,13 +7140,13 @@
         <v>139</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E48" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="0"/>
@@ -7180,13 +7180,13 @@
         <v>142</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E49" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="0"/>
@@ -7220,13 +7220,13 @@
         <v>146</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E50" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="0"/>
@@ -7260,13 +7260,13 @@
         <v>146</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E51" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="0"/>
@@ -7300,13 +7300,13 @@
         <v>146</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E52" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" si="0"/>
@@ -7340,13 +7340,13 @@
         <v>150</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E53" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F53" t="str">
         <f t="shared" si="0"/>
@@ -7380,13 +7380,13 @@
         <v>153</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E54" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F54" t="str">
         <f t="shared" si="0"/>
@@ -7420,13 +7420,13 @@
         <v>155</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E55" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F55" t="str">
         <f t="shared" si="0"/>
@@ -7460,13 +7460,13 @@
         <v>158</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E56" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F56" t="str">
         <f t="shared" si="0"/>
@@ -7500,13 +7500,13 @@
         <v>160</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E57" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F57" t="str">
         <f t="shared" si="0"/>
@@ -7540,13 +7540,13 @@
         <v>160</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E58" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F58" t="str">
         <f t="shared" si="0"/>
@@ -7580,13 +7580,13 @@
         <v>163</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E59" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F59" t="str">
         <f t="shared" si="0"/>
@@ -7620,13 +7620,13 @@
         <v>168</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E60" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F60" t="str">
         <f t="shared" si="0"/>
@@ -7660,13 +7660,13 @@
         <v>168</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E61" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F61" t="str">
         <f t="shared" si="0"/>
@@ -7700,13 +7700,13 @@
         <v>39</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E62" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F62" t="str">
         <f t="shared" si="0"/>
@@ -7740,13 +7740,13 @@
         <v>39</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E63" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F63" t="str">
         <f t="shared" si="0"/>
@@ -7780,13 +7780,13 @@
         <v>174</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E64" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F64" t="str">
         <f t="shared" si="0"/>
@@ -7820,13 +7820,13 @@
         <v>178</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E65" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F65" t="str">
         <f t="shared" si="0"/>
@@ -7860,13 +7860,13 @@
         <v>181</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E66" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F66" t="str">
         <f t="shared" si="0"/>
@@ -7900,13 +7900,13 @@
         <v>183</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E67" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F67" t="str">
         <f t="shared" ref="F67:F130" si="2">IFERROR(LEFT(X67, SEARCH("2025", X67) + 3), X67)</f>
@@ -7940,13 +7940,13 @@
         <v>186</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E68" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F68" t="str">
         <f t="shared" si="2"/>
@@ -7980,13 +7980,13 @@
         <v>190</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E69" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F69" t="str">
         <f t="shared" si="2"/>
@@ -8020,13 +8020,13 @@
         <v>193</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E70" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F70" t="str">
         <f t="shared" si="2"/>
@@ -8060,13 +8060,13 @@
         <v>196</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E71" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F71" t="str">
         <f t="shared" si="2"/>
@@ -8100,13 +8100,13 @@
         <v>199</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E72" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F72" t="str">
         <f t="shared" si="2"/>
@@ -8140,13 +8140,13 @@
         <v>201</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E73" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F73" t="str">
         <f t="shared" si="2"/>
@@ -8180,13 +8180,13 @@
         <v>204</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E74" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F74" t="str">
         <f t="shared" si="2"/>
@@ -8223,10 +8223,10 @@
         <v>208</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E75" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F75" t="str">
         <f t="shared" si="2"/>
@@ -8260,13 +8260,13 @@
         <v>210</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E76" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F76" t="str">
         <f t="shared" si="2"/>
@@ -8300,13 +8300,13 @@
         <v>214</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E77" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F77" t="str">
         <f t="shared" si="2"/>
@@ -8340,13 +8340,13 @@
         <v>217</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E78" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F78" t="str">
         <f t="shared" si="2"/>
@@ -8380,13 +8380,13 @@
         <v>220</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E79" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F79" t="str">
         <f t="shared" si="2"/>
@@ -8420,13 +8420,13 @@
         <v>223</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E80" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F80" t="str">
         <f t="shared" si="2"/>
@@ -8460,13 +8460,13 @@
         <v>226</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E81" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F81" t="str">
         <f t="shared" si="2"/>
@@ -8500,13 +8500,13 @@
         <v>228</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E82" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F82" t="str">
         <f t="shared" si="2"/>
@@ -8540,13 +8540,13 @@
         <v>231</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E83" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F83" t="str">
         <f t="shared" si="2"/>
@@ -8580,13 +8580,13 @@
         <v>234</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E84" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F84" t="str">
         <f t="shared" si="2"/>
@@ -8620,13 +8620,13 @@
         <v>237</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E85" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F85" t="str">
         <f t="shared" si="2"/>
@@ -8660,13 +8660,13 @@
         <v>240</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E86" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F86" t="str">
         <f t="shared" si="2"/>
@@ -8700,13 +8700,13 @@
         <v>243</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E87" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F87" t="str">
         <f t="shared" si="2"/>
@@ -8740,13 +8740,13 @@
         <v>240</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E88" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F88" t="str">
         <f t="shared" si="2"/>
@@ -8780,13 +8780,13 @@
         <v>246</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E89" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F89" t="str">
         <f t="shared" si="2"/>
@@ -8820,13 +8820,13 @@
         <v>250</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E90" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F90" t="str">
         <f t="shared" si="2"/>
@@ -8860,13 +8860,13 @@
         <v>254</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E91" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F91" t="str">
         <f t="shared" si="2"/>
@@ -8900,13 +8900,13 @@
         <v>257</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E92" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F92" t="str">
         <f t="shared" si="2"/>
@@ -8940,13 +8940,13 @@
         <v>257</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E93" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F93" t="str">
         <f t="shared" si="2"/>
@@ -8980,13 +8980,13 @@
         <v>260</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E94" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F94" t="str">
         <f t="shared" si="2"/>
@@ -9023,10 +9023,10 @@
         <v>264</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E95" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F95" t="str">
         <f t="shared" si="2"/>
@@ -9060,13 +9060,13 @@
         <v>266</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E96" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F96" t="str">
         <f t="shared" si="2"/>
@@ -9100,13 +9100,13 @@
         <v>269</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E97" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F97" t="str">
         <f t="shared" si="2"/>
@@ -9140,13 +9140,13 @@
         <v>272</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E98" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F98" t="str">
         <f t="shared" si="2"/>
@@ -9180,13 +9180,13 @@
         <v>269</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E99" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F99" t="str">
         <f t="shared" si="2"/>
@@ -9220,13 +9220,13 @@
         <v>276</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E100" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F100" t="str">
         <f t="shared" si="2"/>
@@ -9260,13 +9260,13 @@
         <v>279</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E101" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F101" t="str">
         <f t="shared" si="2"/>
@@ -9300,13 +9300,13 @@
         <v>282</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E102" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F102" t="str">
         <f t="shared" si="2"/>
@@ -9340,13 +9340,13 @@
         <v>285</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E103" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F103" t="str">
         <f t="shared" si="2"/>
@@ -9380,13 +9380,13 @@
         <v>266</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E104" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F104" t="str">
         <f t="shared" si="2"/>
@@ -9420,13 +9420,13 @@
         <v>289</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E105" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F105" t="str">
         <f t="shared" si="2"/>
@@ -9460,13 +9460,13 @@
         <v>292</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E106" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F106" t="str">
         <f t="shared" si="2"/>
@@ -9500,13 +9500,13 @@
         <v>296</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E107" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F107" t="str">
         <f t="shared" si="2"/>
@@ -9540,13 +9540,13 @@
         <v>299</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E108" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F108" t="str">
         <f t="shared" si="2"/>
@@ -9580,13 +9580,13 @@
         <v>301</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E109" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F109" t="str">
         <f t="shared" si="2"/>
@@ -9620,13 +9620,13 @@
         <v>301</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E110" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F110" t="str">
         <f t="shared" si="2"/>
@@ -9660,13 +9660,13 @@
         <v>306</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E111" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F111" t="str">
         <f t="shared" si="2"/>
@@ -9700,13 +9700,13 @@
         <v>306</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E112" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F112" t="str">
         <f t="shared" si="2"/>
@@ -9740,13 +9740,13 @@
         <v>309</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E113" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F113" t="str">
         <f t="shared" si="2"/>
@@ -9780,13 +9780,13 @@
         <v>309</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E114" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F114" t="str">
         <f t="shared" si="2"/>
@@ -9820,13 +9820,13 @@
         <v>309</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E115" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F115" t="str">
         <f t="shared" si="2"/>
@@ -9860,13 +9860,13 @@
         <v>313</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E116" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F116" t="str">
         <f t="shared" si="2"/>
@@ -9900,13 +9900,13 @@
         <v>313</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E117" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F117" t="str">
         <f t="shared" si="2"/>
@@ -9940,13 +9940,13 @@
         <v>316</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E118" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F118" t="str">
         <f t="shared" si="2"/>
@@ -9980,13 +9980,13 @@
         <v>319</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E119" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F119" t="str">
         <f t="shared" si="2"/>
@@ -10020,13 +10020,13 @@
         <v>322</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E120" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F120" t="str">
         <f t="shared" si="2"/>
@@ -10060,13 +10060,13 @@
         <v>325</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E121" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F121" t="str">
         <f t="shared" si="2"/>
@@ -10100,13 +10100,13 @@
         <v>328</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E122" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F122" t="str">
         <f t="shared" si="2"/>
@@ -10140,13 +10140,13 @@
         <v>331</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E123" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F123" t="str">
         <f t="shared" si="2"/>
@@ -10180,13 +10180,13 @@
         <v>334</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E124" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F124" t="str">
         <f t="shared" si="2"/>
@@ -10220,13 +10220,13 @@
         <v>337</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E125" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F125" t="str">
         <f t="shared" si="2"/>
@@ -10260,13 +10260,13 @@
         <v>340</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E126" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F126" t="str">
         <f t="shared" si="2"/>
@@ -10300,13 +10300,13 @@
         <v>343</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E127" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F127" t="str">
         <f t="shared" si="2"/>
@@ -10340,13 +10340,13 @@
         <v>345</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E128" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F128" t="str">
         <f t="shared" si="2"/>
@@ -10380,13 +10380,13 @@
         <v>348</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E129" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F129" t="str">
         <f t="shared" si="2"/>
@@ -10420,13 +10420,13 @@
         <v>351</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E130" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F130" t="str">
         <f t="shared" si="2"/>
@@ -10460,13 +10460,13 @@
         <v>354</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E131" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F131" t="str">
         <f t="shared" ref="F131:F194" si="4">IFERROR(LEFT(X131, SEARCH("2025", X131) + 3), X131)</f>
@@ -10500,13 +10500,13 @@
         <v>357</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E132" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F132" t="str">
         <f t="shared" si="4"/>
@@ -10540,13 +10540,13 @@
         <v>360</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E133" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F133" t="str">
         <f t="shared" si="4"/>
@@ -10580,13 +10580,13 @@
         <v>363</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E134" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F134" t="str">
         <f t="shared" si="4"/>
@@ -10620,13 +10620,13 @@
         <v>366</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E135" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F135" t="str">
         <f t="shared" si="4"/>
@@ -10660,13 +10660,13 @@
         <v>369</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E136" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F136" t="str">
         <f t="shared" si="4"/>
@@ -10700,13 +10700,13 @@
         <v>372</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E137" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F137" t="str">
         <f t="shared" si="4"/>
@@ -10740,13 +10740,13 @@
         <v>375</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E138" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F138" t="str">
         <f t="shared" si="4"/>
@@ -10780,13 +10780,13 @@
         <v>378</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E139" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F139" t="str">
         <f t="shared" si="4"/>
@@ -10820,13 +10820,13 @@
         <v>380</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E140" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F140" t="str">
         <f t="shared" si="4"/>
@@ -10860,13 +10860,13 @@
         <v>354</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E141" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F141" t="str">
         <f t="shared" si="4"/>
@@ -10900,13 +10900,13 @@
         <v>357</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E142" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F142" t="str">
         <f t="shared" si="4"/>
@@ -10940,13 +10940,13 @@
         <v>384</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E143" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F143" t="str">
         <f t="shared" si="4"/>
@@ -10980,13 +10980,13 @@
         <v>340</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E144" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F144" t="str">
         <f t="shared" si="4"/>
@@ -11020,13 +11020,13 @@
         <v>360</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E145" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F145" t="str">
         <f t="shared" si="4"/>
@@ -11060,13 +11060,13 @@
         <v>363</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E146" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F146" t="str">
         <f t="shared" si="4"/>
@@ -11100,13 +11100,13 @@
         <v>343</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E147" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F147" t="str">
         <f t="shared" si="4"/>
@@ -11140,13 +11140,13 @@
         <v>366</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E148" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F148" t="str">
         <f t="shared" si="4"/>
@@ -11180,13 +11180,13 @@
         <v>392</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E149" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F149" t="str">
         <f t="shared" si="4"/>
@@ -11220,13 +11220,13 @@
         <v>334</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E150" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F150" t="str">
         <f t="shared" si="4"/>
@@ -11260,13 +11260,13 @@
         <v>345</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E151" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F151" t="str">
         <f t="shared" si="4"/>
@@ -11300,13 +11300,13 @@
         <v>372</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E152" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F152" t="str">
         <f t="shared" si="4"/>
@@ -11340,13 +11340,13 @@
         <v>348</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E153" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F153" t="str">
         <f t="shared" si="4"/>
@@ -11380,13 +11380,13 @@
         <v>398</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E154" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F154" t="str">
         <f t="shared" si="4"/>
@@ -11420,13 +11420,13 @@
         <v>401</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E155" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F155" t="str">
         <f t="shared" si="4"/>
@@ -11460,13 +11460,13 @@
         <v>404</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E156" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F156" t="str">
         <f t="shared" si="4"/>
@@ -11500,13 +11500,13 @@
         <v>408</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E157" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F157" t="str">
         <f t="shared" si="4"/>
@@ -11540,13 +11540,13 @@
         <v>411</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E158" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F158" t="str">
         <f t="shared" si="4"/>
@@ -11580,13 +11580,13 @@
         <v>414</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E159" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F159" t="str">
         <f t="shared" si="4"/>
@@ -11620,13 +11620,13 @@
         <v>417</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E160" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F160" t="str">
         <f t="shared" si="4"/>
@@ -11660,13 +11660,13 @@
         <v>417</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E161" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F161" t="str">
         <f t="shared" si="4"/>
@@ -11700,13 +11700,13 @@
         <v>421</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E162" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F162" t="str">
         <f t="shared" si="4"/>
@@ -11740,13 +11740,13 @@
         <v>421</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E163" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F163" t="str">
         <f t="shared" si="4"/>
@@ -11780,13 +11780,13 @@
         <v>424</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E164" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F164" t="str">
         <f t="shared" si="4"/>
@@ -11820,13 +11820,13 @@
         <v>426</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E165" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F165" t="str">
         <f t="shared" si="4"/>
@@ -11860,13 +11860,13 @@
         <v>429</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E166" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F166" t="str">
         <f t="shared" si="4"/>
@@ -11900,13 +11900,13 @@
         <v>431</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E167" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F167" t="str">
         <f t="shared" si="4"/>
@@ -11940,13 +11940,13 @@
         <v>434</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E168" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F168" t="str">
         <f t="shared" si="4"/>
@@ -11980,13 +11980,13 @@
         <v>437</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E169" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F169" t="str">
         <f t="shared" si="4"/>
@@ -12020,13 +12020,13 @@
         <v>440</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E170" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F170" t="str">
         <f t="shared" si="4"/>
@@ -12060,13 +12060,13 @@
         <v>444</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E171" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F171" t="str">
         <f t="shared" si="4"/>
@@ -12100,13 +12100,13 @@
         <v>447</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E172" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F172" t="str">
         <f t="shared" si="4"/>
@@ -12140,13 +12140,13 @@
         <v>450</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E173" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F173" t="str">
         <f t="shared" si="4"/>
@@ -12180,13 +12180,13 @@
         <v>453</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E174" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F174" t="str">
         <f t="shared" si="4"/>
@@ -12220,13 +12220,13 @@
         <v>456</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E175" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F175" t="str">
         <f t="shared" si="4"/>
@@ -12260,13 +12260,13 @@
         <v>459</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E176" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F176" t="str">
         <f t="shared" si="4"/>
@@ -12300,13 +12300,13 @@
         <v>462</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E177" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F177" t="str">
         <f t="shared" si="4"/>
@@ -12340,13 +12340,13 @@
         <v>112</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E178" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F178" t="str">
         <f t="shared" si="4"/>
@@ -12380,13 +12380,13 @@
         <v>466</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E179" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F179" t="str">
         <f t="shared" si="4"/>
@@ -12420,13 +12420,13 @@
         <v>469</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E180" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F180" t="str">
         <f t="shared" si="4"/>
@@ -12460,13 +12460,13 @@
         <v>472</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E181" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F181" t="str">
         <f t="shared" si="4"/>
@@ -12500,13 +12500,13 @@
         <v>475</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E182" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F182" t="str">
         <f t="shared" si="4"/>
@@ -12540,13 +12540,13 @@
         <v>478</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E183" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F183" t="str">
         <f t="shared" si="4"/>
@@ -12580,13 +12580,13 @@
         <v>481</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E184" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F184" t="str">
         <f t="shared" si="4"/>
@@ -12620,13 +12620,13 @@
         <v>484</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E185" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F185" t="str">
         <f t="shared" si="4"/>
@@ -12660,13 +12660,13 @@
         <v>487</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E186" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F186" t="str">
         <f t="shared" si="4"/>
@@ -12700,13 +12700,13 @@
         <v>490</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E187" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F187" t="str">
         <f t="shared" si="4"/>
@@ -12740,13 +12740,13 @@
         <v>112</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E188" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F188" t="str">
         <f t="shared" si="4"/>
@@ -12780,13 +12780,13 @@
         <v>494</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E189" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F189" t="str">
         <f t="shared" si="4"/>
@@ -12820,13 +12820,13 @@
         <v>494</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E190" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F190" t="str">
         <f t="shared" si="4"/>
@@ -12860,13 +12860,13 @@
         <v>496</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E191" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F191" t="str">
         <f t="shared" si="4"/>
@@ -12900,13 +12900,13 @@
         <v>500</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E192" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F192" t="str">
         <f t="shared" si="4"/>
@@ -12940,13 +12940,13 @@
         <v>503</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E193" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F193" t="str">
         <f t="shared" si="4"/>
@@ -12980,13 +12980,13 @@
         <v>507</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E194" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F194" t="str">
         <f t="shared" si="4"/>
@@ -13020,13 +13020,13 @@
         <v>475</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E195" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F195" t="str">
         <f t="shared" ref="F195:F258" si="6">IFERROR(LEFT(X195, SEARCH("2025", X195) + 3), X195)</f>
@@ -13060,13 +13060,13 @@
         <v>475</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E196" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F196" t="str">
         <f t="shared" si="6"/>
@@ -13100,13 +13100,13 @@
         <v>475</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E197" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F197" t="str">
         <f t="shared" si="6"/>
@@ -13140,13 +13140,13 @@
         <v>478</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E198" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F198" t="str">
         <f t="shared" si="6"/>
@@ -13180,13 +13180,13 @@
         <v>481</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E199" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F199" t="str">
         <f t="shared" si="6"/>
@@ -13220,13 +13220,13 @@
         <v>513</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E200" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F200" t="str">
         <f t="shared" si="6"/>
@@ -13260,13 +13260,13 @@
         <v>513</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E201" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F201" t="str">
         <f t="shared" si="6"/>
@@ -13300,13 +13300,13 @@
         <v>516</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E202" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F202" t="str">
         <f t="shared" si="6"/>
@@ -13340,13 +13340,13 @@
         <v>484</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E203" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F203" t="str">
         <f t="shared" si="6"/>
@@ -13380,13 +13380,13 @@
         <v>519</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E204" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F204" t="str">
         <f t="shared" si="6"/>
@@ -13420,13 +13420,13 @@
         <v>521</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E205" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F205" t="str">
         <f t="shared" si="6"/>
@@ -13460,13 +13460,13 @@
         <v>524</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E206" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F206" t="str">
         <f t="shared" si="6"/>
@@ -13500,13 +13500,13 @@
         <v>527</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E207" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F207" t="str">
         <f t="shared" si="6"/>
@@ -13540,13 +13540,13 @@
         <v>527</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E208" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F208" t="str">
         <f t="shared" si="6"/>
@@ -13580,13 +13580,13 @@
         <v>530</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E209" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F209" t="str">
         <f t="shared" si="6"/>
@@ -13620,13 +13620,13 @@
         <v>472</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E210" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F210" t="str">
         <f t="shared" si="6"/>
@@ -13660,13 +13660,13 @@
         <v>534</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E211" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F211" t="str">
         <f t="shared" si="6"/>
@@ -13700,13 +13700,13 @@
         <v>534</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E212" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F212" t="str">
         <f t="shared" si="6"/>
@@ -13740,13 +13740,13 @@
         <v>538</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E213" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F213" t="str">
         <f t="shared" si="6"/>
@@ -13780,13 +13780,13 @@
         <v>466</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E214" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F214" t="str">
         <f t="shared" si="6"/>
@@ -13820,13 +13820,13 @@
         <v>542</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E215" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F215" t="str">
         <f t="shared" si="6"/>
@@ -13860,13 +13860,13 @@
         <v>546</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E216" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F216" t="str">
         <f t="shared" si="6"/>
@@ -13900,13 +13900,13 @@
         <v>550</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E217" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F217" t="str">
         <f t="shared" si="6"/>
@@ -13940,13 +13940,13 @@
         <v>553</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E218" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F218" t="str">
         <f t="shared" si="6"/>
@@ -13980,13 +13980,13 @@
         <v>556</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E219" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F219" t="str">
         <f t="shared" si="6"/>
@@ -14020,13 +14020,13 @@
         <v>559</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E220" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F220" t="str">
         <f t="shared" si="6"/>
@@ -14060,13 +14060,13 @@
         <v>562</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E221" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F221" t="str">
         <f t="shared" si="6"/>
@@ -14100,13 +14100,13 @@
         <v>562</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E222" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F222" t="str">
         <f t="shared" si="6"/>
@@ -14140,13 +14140,13 @@
         <v>566</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E223" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F223" t="str">
         <f t="shared" si="6"/>
@@ -14180,13 +14180,13 @@
         <v>569</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E224" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F224" t="str">
         <f t="shared" si="6"/>
@@ -14220,13 +14220,13 @@
         <v>571</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E225" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F225" t="str">
         <f t="shared" si="6"/>
@@ -14260,13 +14260,13 @@
         <v>571</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E226" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F226" t="str">
         <f t="shared" si="6"/>
@@ -14300,13 +14300,13 @@
         <v>574</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E227" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F227" t="str">
         <f t="shared" si="6"/>
@@ -14340,13 +14340,13 @@
         <v>577</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E228" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F228" t="str">
         <f t="shared" si="6"/>
@@ -14380,13 +14380,13 @@
         <v>553</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E229" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F229" t="str">
         <f t="shared" si="6"/>
@@ -14420,13 +14420,13 @@
         <v>556</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E230" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F230" t="str">
         <f t="shared" si="6"/>
@@ -14460,13 +14460,13 @@
         <v>559</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E231" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F231" t="str">
         <f t="shared" si="6"/>
@@ -14500,13 +14500,13 @@
         <v>583</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E232" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F232" t="str">
         <f t="shared" si="6"/>
@@ -14540,13 +14540,13 @@
         <v>586</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E233" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F233" t="str">
         <f t="shared" si="6"/>
@@ -14580,13 +14580,13 @@
         <v>590</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E234" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F234" t="str">
         <f t="shared" si="6"/>
@@ -14620,13 +14620,13 @@
         <v>593</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E235" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F235" t="str">
         <f t="shared" si="6"/>
@@ -14660,13 +14660,13 @@
         <v>595</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E236" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F236" t="str">
         <f t="shared" si="6"/>
@@ -14700,13 +14700,13 @@
         <v>595</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E237" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F237" t="str">
         <f t="shared" si="6"/>
@@ -14740,13 +14740,13 @@
         <v>599</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E238" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F238" t="str">
         <f t="shared" si="6"/>
@@ -14783,10 +14783,10 @@
         <v>603</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E239" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F239" t="str">
         <f t="shared" si="6"/>
@@ -14823,10 +14823,10 @@
         <v>607</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E240" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F240" t="str">
         <f t="shared" si="6"/>
@@ -14863,10 +14863,10 @@
         <v>610</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E241" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F241" t="str">
         <f t="shared" si="6"/>
@@ -14903,10 +14903,10 @@
         <v>613</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E242" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F242" t="str">
         <f t="shared" si="6"/>
@@ -14943,10 +14943,10 @@
         <v>616</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E243" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F243" t="str">
         <f t="shared" si="6"/>
@@ -14983,10 +14983,10 @@
         <v>619</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E244" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F244" t="str">
         <f t="shared" si="6"/>
@@ -15023,10 +15023,10 @@
         <v>622</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E245" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F245" t="str">
         <f t="shared" si="6"/>
@@ -15063,10 +15063,10 @@
         <v>613</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E246" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F246" t="str">
         <f t="shared" si="6"/>
@@ -15100,13 +15100,13 @@
         <v>625</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E247" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F247" t="str">
         <f t="shared" si="6"/>
@@ -15140,13 +15140,13 @@
         <v>628</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E248" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F248" t="str">
         <f t="shared" si="6"/>
@@ -15180,13 +15180,13 @@
         <v>618</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E249" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F249" t="str">
         <f t="shared" si="6"/>
@@ -15220,13 +15220,13 @@
         <v>632</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E250" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F250" t="str">
         <f t="shared" si="6"/>
@@ -15260,13 +15260,13 @@
         <v>609</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E251" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F251" t="str">
         <f t="shared" si="6"/>
@@ -15303,10 +15303,10 @@
         <v>638</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E252" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F252" t="str">
         <f t="shared" si="6"/>
@@ -15340,13 +15340,13 @@
         <v>640</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E253" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F253" t="str">
         <f t="shared" si="6"/>
@@ -15380,13 +15380,13 @@
         <v>643</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E254" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F254" t="str">
         <f t="shared" si="6"/>
@@ -15420,13 +15420,13 @@
         <v>645</v>
       </c>
       <c r="C255" s="7" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E255" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F255" t="str">
         <f t="shared" si="6"/>
@@ -15460,13 +15460,13 @@
         <v>648</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E256" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F256" t="str">
         <f t="shared" si="6"/>
@@ -15500,13 +15500,13 @@
         <v>652</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E257" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F257" t="str">
         <f t="shared" si="6"/>
@@ -15540,13 +15540,13 @@
         <v>655</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E258" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F258" t="str">
         <f t="shared" si="6"/>
@@ -15583,10 +15583,10 @@
         <v>659</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E259" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F259" t="str">
         <f t="shared" ref="F259:F322" si="8">IFERROR(LEFT(X259, SEARCH("2025", X259) + 3), X259)</f>
@@ -15620,13 +15620,13 @@
         <v>662</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E260" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F260" t="str">
         <f t="shared" si="8"/>
@@ -15660,13 +15660,13 @@
         <v>665</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E261" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F261" t="str">
         <f t="shared" si="8"/>
@@ -15700,13 +15700,13 @@
         <v>668</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E262" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F262" t="str">
         <f t="shared" si="8"/>
@@ -15740,13 +15740,13 @@
         <v>670</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E263" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F263" t="str">
         <f t="shared" si="8"/>
@@ -15780,13 +15780,13 @@
         <v>673</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E264" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F264" t="str">
         <f t="shared" si="8"/>
@@ -15820,13 +15820,13 @@
         <v>676</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E265" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F265" t="str">
         <f t="shared" si="8"/>
@@ -15860,13 +15860,13 @@
         <v>678</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E266" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F266" t="str">
         <f t="shared" si="8"/>
@@ -15900,13 +15900,13 @@
         <v>681</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E267" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F267" t="str">
         <f t="shared" si="8"/>
@@ -15940,13 +15940,13 @@
         <v>684</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E268" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F268" t="str">
         <f t="shared" si="8"/>
@@ -15980,13 +15980,13 @@
         <v>687</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E269" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F269" t="str">
         <f t="shared" si="8"/>
@@ -16020,13 +16020,13 @@
         <v>690</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E270" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F270" t="str">
         <f t="shared" si="8"/>
@@ -16060,13 +16060,13 @@
         <v>693</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E271" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F271" t="str">
         <f t="shared" si="8"/>
@@ -16103,10 +16103,10 @@
         <v>659</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E272" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F272" t="str">
         <f t="shared" si="8"/>
@@ -16140,13 +16140,13 @@
         <v>684</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E273" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F273" t="str">
         <f t="shared" si="8"/>
@@ -16180,13 +16180,13 @@
         <v>698</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E274" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F274" t="str">
         <f t="shared" si="8"/>
@@ -16220,13 +16220,13 @@
         <v>702</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E275" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F275" t="str">
         <f t="shared" si="8"/>
@@ -16260,13 +16260,13 @@
         <v>698</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E276" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F276" t="str">
         <f t="shared" si="8"/>
@@ -16300,13 +16300,13 @@
         <v>702</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E277" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F277" t="str">
         <f t="shared" si="8"/>
@@ -16340,13 +16340,13 @@
         <v>706</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E278" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F278" t="str">
         <f t="shared" si="8"/>
@@ -16380,13 +16380,13 @@
         <v>706</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E279" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F279" t="str">
         <f t="shared" si="8"/>
@@ -16420,13 +16420,13 @@
         <v>706</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E280" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F280" t="str">
         <f t="shared" si="8"/>
@@ -16460,13 +16460,13 @@
         <v>706</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E281" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F281" t="str">
         <f t="shared" si="8"/>
@@ -16500,13 +16500,13 @@
         <v>711</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E282" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F282" t="str">
         <f t="shared" si="8"/>
@@ -16540,13 +16540,13 @@
         <v>711</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E283" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F283" t="str">
         <f t="shared" si="8"/>
@@ -16580,13 +16580,13 @@
         <v>711</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E284" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F284" t="str">
         <f t="shared" si="8"/>
@@ -16620,13 +16620,13 @@
         <v>711</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E285" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F285" t="str">
         <f t="shared" si="8"/>
@@ -16660,13 +16660,13 @@
         <v>716</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E286" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F286" t="str">
         <f t="shared" si="8"/>
@@ -16700,13 +16700,13 @@
         <v>719</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E287" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F287" t="str">
         <f t="shared" si="8"/>
@@ -16743,10 +16743,10 @@
         <v>723</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>1268</v>
+        <v>1599</v>
       </c>
       <c r="E288" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F288" t="str">
         <f t="shared" si="8"/>
@@ -16780,13 +16780,13 @@
         <v>726</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E289" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F289" t="str">
         <f t="shared" si="8"/>
@@ -16820,13 +16820,13 @@
         <v>726</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E290" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F290" t="str">
         <f t="shared" si="8"/>
@@ -16860,13 +16860,13 @@
         <v>730</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="D291" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E291" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F291" t="str">
         <f t="shared" si="8"/>
@@ -16900,13 +16900,13 @@
         <v>732</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="D292" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E292" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F292" t="str">
         <f t="shared" si="8"/>
@@ -16940,13 +16940,13 @@
         <v>735</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E293" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F293" t="str">
         <f t="shared" si="8"/>
@@ -16980,13 +16980,13 @@
         <v>738</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="D294" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E294" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F294" t="str">
         <f t="shared" si="8"/>
@@ -17020,13 +17020,13 @@
         <v>741</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="D295" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E295" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F295" t="str">
         <f t="shared" si="8"/>
@@ -17060,13 +17060,13 @@
         <v>744</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E296" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F296" t="str">
         <f t="shared" si="8"/>
@@ -17100,13 +17100,13 @@
         <v>747</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="D297" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E297" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F297" t="str">
         <f t="shared" si="8"/>
@@ -17140,13 +17140,13 @@
         <v>750</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="D298" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E298" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F298" t="str">
         <f t="shared" si="8"/>
@@ -17180,13 +17180,13 @@
         <v>752</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="D299" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E299" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F299" t="str">
         <f t="shared" si="8"/>
@@ -17220,13 +17220,13 @@
         <v>755</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="D300" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E300" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F300" t="str">
         <f t="shared" si="8"/>
@@ -17260,13 +17260,13 @@
         <v>755</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="D301" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E301" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F301" t="str">
         <f t="shared" si="8"/>
@@ -17300,13 +17300,13 @@
         <v>757</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="D302" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E302" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F302" t="str">
         <f t="shared" si="8"/>
@@ -17340,13 +17340,13 @@
         <v>760</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="D303" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E303" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F303" t="str">
         <f t="shared" si="8"/>
@@ -17380,13 +17380,13 @@
         <v>762</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="D304" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E304" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F304" t="str">
         <f t="shared" si="8"/>
@@ -17420,13 +17420,13 @@
         <v>766</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E305" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F305" t="str">
         <f t="shared" si="8"/>
@@ -17460,13 +17460,13 @@
         <v>762</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="D306" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E306" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F306" t="str">
         <f t="shared" si="8"/>
@@ -17500,13 +17500,13 @@
         <v>762</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="D307" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E307" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F307" t="str">
         <f t="shared" si="8"/>
@@ -17540,13 +17540,13 @@
         <v>771</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="D308" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E308" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F308" t="str">
         <f t="shared" si="8"/>
@@ -17580,13 +17580,13 @@
         <v>774</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E309" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F309" t="str">
         <f t="shared" si="8"/>
@@ -17620,13 +17620,13 @@
         <v>774</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="D310" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E310" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F310" t="str">
         <f t="shared" si="8"/>
@@ -17660,13 +17660,13 @@
         <v>778</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="D311" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E311" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F311" t="str">
         <f t="shared" si="8"/>
@@ -17703,10 +17703,10 @@
         <v>782</v>
       </c>
       <c r="D312" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E312" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F312" t="str">
         <f t="shared" si="8"/>
@@ -17740,13 +17740,13 @@
         <v>774</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="D313" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E313" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F313" t="str">
         <f t="shared" si="8"/>
@@ -17780,13 +17780,13 @@
         <v>774</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="D314" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E314" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F314" t="str">
         <f t="shared" si="8"/>
@@ -17823,10 +17823,10 @@
         <v>782</v>
       </c>
       <c r="D315" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E315" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F315" t="str">
         <f t="shared" si="8"/>
@@ -17860,13 +17860,13 @@
         <v>786</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="D316" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E316" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F316" t="str">
         <f t="shared" si="8"/>
@@ -17900,13 +17900,13 @@
         <v>789</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="D317" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E317" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F317" t="str">
         <f t="shared" si="8"/>
@@ -17940,13 +17940,13 @@
         <v>792</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="D318" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E318" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F318" t="str">
         <f t="shared" si="8"/>
@@ -17980,13 +17980,13 @@
         <v>792</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="D319" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E319" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F319" t="str">
         <f t="shared" si="8"/>
@@ -18020,13 +18020,13 @@
         <v>797</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="D320" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E320" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F320" t="str">
         <f t="shared" si="8"/>
@@ -18060,13 +18060,13 @@
         <v>800</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="D321" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E321" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F321" t="str">
         <f t="shared" si="8"/>
@@ -18100,13 +18100,13 @@
         <v>800</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="D322" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E322" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F322" t="str">
         <f t="shared" si="8"/>
@@ -18140,13 +18140,13 @@
         <v>804</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="D323" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E323" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F323" t="str">
         <f t="shared" ref="F323:F386" si="10">IFERROR(LEFT(X323, SEARCH("2025", X323) + 3), X323)</f>
@@ -18180,13 +18180,13 @@
         <v>807</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="D324" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E324" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F324" t="str">
         <f t="shared" si="10"/>
@@ -18220,13 +18220,13 @@
         <v>810</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="D325" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E325" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F325" t="str">
         <f t="shared" si="10"/>
@@ -18260,13 +18260,13 @@
         <v>812</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="D326" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E326" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F326" t="str">
         <f t="shared" si="10"/>
@@ -18300,13 +18300,13 @@
         <v>815</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="D327" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E327" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F327" t="str">
         <f t="shared" si="10"/>
@@ -18340,13 +18340,13 @@
         <v>818</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="D328" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E328" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F328" t="str">
         <f t="shared" si="10"/>
@@ -18380,13 +18380,13 @@
         <v>807</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="D329" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E329" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F329" t="str">
         <f t="shared" si="10"/>
@@ -18420,13 +18420,13 @@
         <v>822</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="D330" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E330" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F330" t="str">
         <f t="shared" si="10"/>
@@ -18460,13 +18460,13 @@
         <v>826</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="D331" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E331" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F331" t="str">
         <f t="shared" si="10"/>
@@ -18500,13 +18500,13 @@
         <v>826</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="D332" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E332" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F332" t="str">
         <f t="shared" si="10"/>
@@ -18540,13 +18540,13 @@
         <v>826</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="D333" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E333" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F333" t="str">
         <f t="shared" si="10"/>
@@ -18580,13 +18580,13 @@
         <v>830</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="D334" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E334" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F334" t="str">
         <f t="shared" si="10"/>
@@ -18620,13 +18620,13 @@
         <v>833</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="D335" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E335" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F335" t="str">
         <f t="shared" si="10"/>
@@ -18660,13 +18660,13 @@
         <v>833</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="D336" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E336" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F336" t="str">
         <f t="shared" si="10"/>
@@ -18700,13 +18700,13 @@
         <v>833</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="D337" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E337" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F337" t="str">
         <f t="shared" si="10"/>
@@ -18740,13 +18740,13 @@
         <v>833</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="D338" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E338" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F338" t="str">
         <f t="shared" si="10"/>
@@ -18780,13 +18780,13 @@
         <v>833</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="D339" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E339" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F339" t="str">
         <f t="shared" si="10"/>
@@ -18820,13 +18820,13 @@
         <v>837</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="D340" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E340" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F340" t="str">
         <f t="shared" si="10"/>
@@ -18860,13 +18860,13 @@
         <v>840</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="D341" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E341" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F341" t="str">
         <f t="shared" si="10"/>
@@ -18900,13 +18900,13 @@
         <v>843</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="D342" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E342" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F342" t="str">
         <f t="shared" si="10"/>
@@ -18940,13 +18940,13 @@
         <v>846</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="D343" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E343" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F343" t="str">
         <f t="shared" si="10"/>
@@ -18980,13 +18980,13 @@
         <v>846</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="D344" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E344" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F344" t="str">
         <f t="shared" si="10"/>
@@ -19020,13 +19020,13 @@
         <v>846</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="D345" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E345" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F345" t="str">
         <f t="shared" si="10"/>
@@ -19060,13 +19060,13 @@
         <v>849</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="D346" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E346" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F346" t="str">
         <f t="shared" si="10"/>
@@ -19100,13 +19100,13 @@
         <v>852</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="D347" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E347" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F347" t="str">
         <f t="shared" si="10"/>
@@ -19140,13 +19140,13 @@
         <v>852</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="D348" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E348" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F348" t="str">
         <f t="shared" si="10"/>
@@ -19180,13 +19180,13 @@
         <v>855</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="D349" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E349" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F349" t="str">
         <f t="shared" si="10"/>
@@ -19220,13 +19220,13 @@
         <v>855</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="D350" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E350" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F350" t="str">
         <f t="shared" si="10"/>
@@ -19260,13 +19260,13 @@
         <v>858</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="D351" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E351" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F351" t="str">
         <f t="shared" si="10"/>
@@ -19300,13 +19300,13 @@
         <v>858</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="D352" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E352" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F352" t="str">
         <f t="shared" si="10"/>
@@ -19340,13 +19340,13 @@
         <v>858</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="D353" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E353" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F353" t="str">
         <f t="shared" si="10"/>
@@ -19380,13 +19380,13 @@
         <v>862</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="D354" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E354" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F354" t="str">
         <f t="shared" si="10"/>
@@ -19420,13 +19420,13 @@
         <v>862</v>
       </c>
       <c r="C355" s="4" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="D355" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E355" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F355" t="str">
         <f t="shared" si="10"/>
@@ -19460,13 +19460,13 @@
         <v>865</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="D356" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E356" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F356" t="str">
         <f t="shared" si="10"/>
@@ -19500,13 +19500,13 @@
         <v>868</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="D357" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E357" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F357" t="str">
         <f t="shared" si="10"/>
@@ -19540,13 +19540,13 @@
         <v>871</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="D358" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E358" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F358" t="str">
         <f t="shared" si="10"/>
@@ -19580,13 +19580,13 @@
         <v>874</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="D359" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E359" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F359" t="str">
         <f t="shared" si="10"/>
@@ -19620,13 +19620,13 @@
         <v>877</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="D360" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E360" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F360" t="str">
         <f t="shared" si="10"/>
@@ -19660,13 +19660,13 @@
         <v>880</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="D361" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E361" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F361" t="str">
         <f t="shared" si="10"/>
@@ -19700,13 +19700,13 @@
         <v>883</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="D362" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E362" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F362" t="str">
         <f t="shared" si="10"/>
@@ -19740,13 +19740,13 @@
         <v>886</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="D363" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E363" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F363" t="str">
         <f t="shared" si="10"/>
@@ -19780,13 +19780,13 @@
         <v>889</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="D364" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E364" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F364" t="str">
         <f t="shared" si="10"/>
@@ -19820,13 +19820,13 @@
         <v>889</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="D365" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E365" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F365" t="str">
         <f t="shared" si="10"/>
@@ -19860,13 +19860,13 @@
         <v>893</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="D366" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E366" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F366" t="str">
         <f t="shared" si="10"/>
@@ -19900,13 +19900,13 @@
         <v>896</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="D367" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E367" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F367" t="str">
         <f t="shared" si="10"/>
@@ -19940,13 +19940,13 @@
         <v>898</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="D368" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E368" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F368" t="str">
         <f t="shared" si="10"/>
@@ -19980,13 +19980,13 @@
         <v>898</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="D369" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E369" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F369" t="str">
         <f t="shared" si="10"/>
@@ -20020,13 +20020,13 @@
         <v>901</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="D370" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E370" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F370" t="str">
         <f t="shared" si="10"/>
@@ -20060,13 +20060,13 @@
         <v>904</v>
       </c>
       <c r="C371" s="4" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="D371" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E371" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F371" t="str">
         <f t="shared" si="10"/>
@@ -20100,13 +20100,13 @@
         <v>904</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="D372" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E372" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F372" t="str">
         <f t="shared" si="10"/>
@@ -20140,13 +20140,13 @@
         <v>907</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="D373" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E373" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F373" t="str">
         <f t="shared" si="10"/>
@@ -20180,13 +20180,13 @@
         <v>910</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="D374" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E374" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F374" t="str">
         <f t="shared" si="10"/>
@@ -20220,13 +20220,13 @@
         <v>913</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="D375" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E375" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F375" t="str">
         <f t="shared" si="10"/>
@@ -20260,13 +20260,13 @@
         <v>915</v>
       </c>
       <c r="C376" s="4" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="D376" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E376" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F376" t="str">
         <f t="shared" si="10"/>
@@ -20303,10 +20303,10 @@
         <v>919</v>
       </c>
       <c r="D377" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E377" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F377" t="str">
         <f t="shared" si="10"/>
@@ -20343,10 +20343,10 @@
         <v>923</v>
       </c>
       <c r="D378" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E378" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F378" t="str">
         <f t="shared" si="10"/>
@@ -20380,13 +20380,13 @@
         <v>925</v>
       </c>
       <c r="C379" s="4" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="D379" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E379" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F379" t="str">
         <f t="shared" si="10"/>
@@ -20420,13 +20420,13 @@
         <v>190</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="D380" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E380" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F380" t="str">
         <f t="shared" si="10"/>
@@ -20460,13 +20460,13 @@
         <v>931</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="D381" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E381" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F381" t="str">
         <f t="shared" si="10"/>
@@ -20500,13 +20500,13 @@
         <v>934</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="D382" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E382" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F382" t="str">
         <f t="shared" si="10"/>
@@ -20540,13 +20540,13 @@
         <v>937</v>
       </c>
       <c r="C383" s="4" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="D383" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E383" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F383" t="str">
         <f t="shared" si="10"/>
@@ -20580,13 +20580,13 @@
         <v>940</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="D384" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E384" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F384" t="str">
         <f t="shared" si="10"/>
@@ -20620,13 +20620,13 @@
         <v>943</v>
       </c>
       <c r="C385" s="4" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="D385" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E385" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F385" t="str">
         <f t="shared" si="10"/>
@@ -20660,13 +20660,13 @@
         <v>946</v>
       </c>
       <c r="C386" s="4" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="D386" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E386" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F386" t="str">
         <f t="shared" si="10"/>
@@ -20700,13 +20700,13 @@
         <v>949</v>
       </c>
       <c r="C387" s="4" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="D387" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E387" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F387" t="str">
         <f t="shared" ref="F387:F450" si="12">IFERROR(LEFT(X387, SEARCH("2025", X387) + 3), X387)</f>
@@ -20740,13 +20740,13 @@
         <v>952</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="D388" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E388" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F388" t="str">
         <f t="shared" si="12"/>
@@ -20780,13 +20780,13 @@
         <v>955</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="D389" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E389" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F389" t="str">
         <f t="shared" si="12"/>
@@ -20820,13 +20820,13 @@
         <v>957</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="D390" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E390" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F390" t="str">
         <f t="shared" si="12"/>
@@ -20860,13 +20860,13 @@
         <v>959</v>
       </c>
       <c r="C391" s="4" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="D391" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E391" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F391" t="str">
         <f t="shared" si="12"/>
@@ -20900,13 +20900,13 @@
         <v>962</v>
       </c>
       <c r="C392" s="4" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="D392" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E392" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F392" t="str">
         <f t="shared" si="12"/>
@@ -20940,13 +20940,13 @@
         <v>965</v>
       </c>
       <c r="C393" s="4" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="D393" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E393" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F393" t="str">
         <f t="shared" si="12"/>
@@ -20980,13 +20980,13 @@
         <v>968</v>
       </c>
       <c r="C394" s="4" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="D394" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E394" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F394" t="str">
         <f t="shared" si="12"/>
@@ -21020,13 +21020,13 @@
         <v>971</v>
       </c>
       <c r="C395" s="4" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="D395" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E395" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F395" t="str">
         <f t="shared" si="12"/>
@@ -21060,13 +21060,13 @@
         <v>574</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="D396" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E396" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F396" t="str">
         <f t="shared" si="12"/>
@@ -21100,13 +21100,13 @@
         <v>975</v>
       </c>
       <c r="C397" s="4" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="D397" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E397" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F397" t="str">
         <f t="shared" si="12"/>
@@ -21140,13 +21140,13 @@
         <v>978</v>
       </c>
       <c r="C398" s="4" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="D398" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E398" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F398" t="str">
         <f t="shared" si="12"/>
@@ -21180,13 +21180,13 @@
         <v>980</v>
       </c>
       <c r="C399" s="4" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="D399" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E399" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F399" t="str">
         <f t="shared" si="12"/>
@@ -21220,13 +21220,13 @@
         <v>490</v>
       </c>
       <c r="C400" s="4" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="D400" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E400" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F400" t="str">
         <f t="shared" si="12"/>
@@ -21260,13 +21260,13 @@
         <v>984</v>
       </c>
       <c r="C401" s="4" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="D401" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E401" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F401" t="str">
         <f t="shared" si="12"/>
@@ -21300,13 +21300,13 @@
         <v>987</v>
       </c>
       <c r="C402" s="4" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="D402" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E402" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F402" t="str">
         <f t="shared" si="12"/>
@@ -21340,13 +21340,13 @@
         <v>990</v>
       </c>
       <c r="C403" s="4" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="D403" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E403" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F403" t="str">
         <f t="shared" si="12"/>
@@ -21380,13 +21380,13 @@
         <v>992</v>
       </c>
       <c r="C404" s="4" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="D404" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E404" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F404" t="str">
         <f t="shared" si="12"/>
@@ -21420,13 +21420,13 @@
         <v>996</v>
       </c>
       <c r="C405" s="4" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="D405" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E405" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F405" t="str">
         <f t="shared" si="12"/>
@@ -21460,13 +21460,13 @@
         <v>996</v>
       </c>
       <c r="C406" s="4" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="D406" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E406" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F406" t="str">
         <f t="shared" si="12"/>
@@ -21500,13 +21500,13 @@
         <v>999</v>
       </c>
       <c r="C407" s="4" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="D407" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E407" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F407" t="str">
         <f t="shared" si="12"/>
@@ -21540,13 +21540,13 @@
         <v>1002</v>
       </c>
       <c r="C408" s="4" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="D408" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E408" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F408" t="str">
         <f t="shared" si="12"/>
@@ -21580,13 +21580,13 @@
         <v>1004</v>
       </c>
       <c r="C409" s="4" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="D409" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E409" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F409" t="str">
         <f t="shared" si="12"/>
@@ -21620,13 +21620,13 @@
         <v>1007</v>
       </c>
       <c r="C410" s="4" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="D410" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E410" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F410" t="str">
         <f t="shared" si="12"/>
@@ -21660,13 +21660,13 @@
         <v>1009</v>
       </c>
       <c r="C411" s="4" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="D411" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E411" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F411" t="str">
         <f t="shared" si="12"/>
@@ -21700,13 +21700,13 @@
         <v>1013</v>
       </c>
       <c r="C412" s="4" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="D412" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E412" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F412" t="str">
         <f t="shared" si="12"/>
@@ -21740,13 +21740,13 @@
         <v>1017</v>
       </c>
       <c r="C413" s="4" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="D413" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E413" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F413" t="str">
         <f t="shared" si="12"/>
@@ -21780,13 +21780,13 @@
         <v>1020</v>
       </c>
       <c r="C414" s="4" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="D414" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E414" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F414" t="str">
         <f t="shared" si="12"/>
@@ -21820,13 +21820,13 @@
         <v>1023</v>
       </c>
       <c r="C415" s="4" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="D415" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E415" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F415" t="str">
         <f t="shared" si="12"/>
@@ -21860,13 +21860,13 @@
         <v>1023</v>
       </c>
       <c r="C416" s="4" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="D416" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E416" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F416" t="str">
         <f t="shared" si="12"/>
@@ -21900,13 +21900,13 @@
         <v>1023</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="D417" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E417" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F417" t="str">
         <f t="shared" si="12"/>
@@ -21940,13 +21940,13 @@
         <v>1027</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="D418" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E418" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F418" t="str">
         <f t="shared" si="12"/>
@@ -21980,13 +21980,13 @@
         <v>1030</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="D419" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E419" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F419" t="str">
         <f t="shared" si="12"/>
@@ -22020,13 +22020,13 @@
         <v>1032</v>
       </c>
       <c r="C420" s="4" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
       <c r="D420" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E420" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F420" t="str">
         <f t="shared" si="12"/>
@@ -22060,13 +22060,13 @@
         <v>1035</v>
       </c>
       <c r="C421" s="4" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="D421" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E421" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F421" t="str">
         <f t="shared" si="12"/>
@@ -22100,13 +22100,13 @@
         <v>1039</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="D422" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E422" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F422" t="str">
         <f t="shared" si="12"/>
@@ -22140,13 +22140,13 @@
         <v>1042</v>
       </c>
       <c r="C423" s="4" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="D423" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E423" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F423" t="str">
         <f t="shared" si="12"/>
@@ -22180,13 +22180,13 @@
         <v>1045</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="D424" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E424" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F424" t="str">
         <f t="shared" si="12"/>
@@ -22220,13 +22220,13 @@
         <v>1048</v>
       </c>
       <c r="C425" s="4" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="D425" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E425" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F425" t="str">
         <f t="shared" si="12"/>
@@ -22260,13 +22260,13 @@
         <v>1051</v>
       </c>
       <c r="C426" s="4" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="D426" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E426" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F426" t="str">
         <f t="shared" si="12"/>
@@ -22300,13 +22300,13 @@
         <v>1053</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="D427" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E427" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F427" t="str">
         <f t="shared" si="12"/>
@@ -22340,13 +22340,13 @@
         <v>1056</v>
       </c>
       <c r="C428" s="4" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="D428" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E428" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F428" t="str">
         <f t="shared" si="12"/>
@@ -22380,13 +22380,13 @@
         <v>1059</v>
       </c>
       <c r="C429" s="4" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="D429" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E429" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F429" t="str">
         <f t="shared" si="12"/>
@@ -22420,13 +22420,13 @@
         <v>1062</v>
       </c>
       <c r="C430" s="4" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
       <c r="D430" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E430" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F430" t="str">
         <f t="shared" si="12"/>
@@ -22460,13 +22460,13 @@
         <v>1065</v>
       </c>
       <c r="C431" s="4" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="D431" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E431" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F431" t="str">
         <f t="shared" si="12"/>
@@ -22500,13 +22500,13 @@
         <v>1068</v>
       </c>
       <c r="C432" s="4" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="D432" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E432" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F432" t="str">
         <f t="shared" si="12"/>
@@ -22540,13 +22540,13 @@
         <v>1071</v>
       </c>
       <c r="C433" s="4" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="D433" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E433" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F433" t="str">
         <f t="shared" si="12"/>
@@ -22580,13 +22580,13 @@
         <v>1074</v>
       </c>
       <c r="C434" s="4" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="D434" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E434" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F434" t="str">
         <f t="shared" si="12"/>
@@ -22620,13 +22620,13 @@
         <v>1076</v>
       </c>
       <c r="C435" s="4" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="D435" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E435" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F435" t="str">
         <f t="shared" si="12"/>
@@ -22660,13 +22660,13 @@
         <v>1079</v>
       </c>
       <c r="C436" s="4" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="D436" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E436" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F436" t="str">
         <f t="shared" si="12"/>
@@ -22700,13 +22700,13 @@
         <v>1082</v>
       </c>
       <c r="C437" s="4" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="D437" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E437" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F437" t="str">
         <f t="shared" si="12"/>
@@ -22740,13 +22740,13 @@
         <v>1085</v>
       </c>
       <c r="C438" s="4" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="D438" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E438" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F438" t="str">
         <f t="shared" si="12"/>
@@ -22780,13 +22780,13 @@
         <v>1088</v>
       </c>
       <c r="C439" s="4" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
       <c r="D439" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E439" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F439" t="str">
         <f t="shared" si="12"/>
@@ -22820,13 +22820,13 @@
         <v>1091</v>
       </c>
       <c r="C440" s="4" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
       <c r="D440" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E440" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F440" t="str">
         <f t="shared" si="12"/>
@@ -22860,13 +22860,13 @@
         <v>1094</v>
       </c>
       <c r="C441" s="4" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
       <c r="D441" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E441" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F441" t="str">
         <f t="shared" si="12"/>
@@ -22900,13 +22900,13 @@
         <v>1097</v>
       </c>
       <c r="C442" s="4" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="D442" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E442" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F442" t="str">
         <f t="shared" si="12"/>
@@ -22940,13 +22940,13 @@
         <v>1100</v>
       </c>
       <c r="C443" s="4" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="D443" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E443" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F443" t="str">
         <f t="shared" si="12"/>
@@ -22980,13 +22980,13 @@
         <v>1104</v>
       </c>
       <c r="C444" s="4" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
       <c r="D444" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E444" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F444" t="str">
         <f t="shared" si="12"/>
@@ -23020,13 +23020,13 @@
         <v>698</v>
       </c>
       <c r="C445" s="4" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="D445" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E445" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F445" t="str">
         <f t="shared" si="12"/>
@@ -23060,13 +23060,13 @@
         <v>1108</v>
       </c>
       <c r="C446" s="4" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
       <c r="D446" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E446" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F446" t="str">
         <f t="shared" si="12"/>
@@ -23100,13 +23100,13 @@
         <v>1111</v>
       </c>
       <c r="C447" s="4" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
       <c r="D447" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E447" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F447" t="str">
         <f t="shared" si="12"/>
@@ -23140,13 +23140,13 @@
         <v>1114</v>
       </c>
       <c r="C448" s="4" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
       <c r="D448" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E448" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F448" t="str">
         <f t="shared" si="12"/>
@@ -23180,13 +23180,13 @@
         <v>1118</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>1565</v>
+        <v>1561</v>
       </c>
       <c r="D449" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E449" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F449" t="str">
         <f t="shared" si="12"/>
@@ -23220,13 +23220,13 @@
         <v>1121</v>
       </c>
       <c r="C450" s="4" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
       <c r="D450" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E450" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F450" t="str">
         <f t="shared" si="12"/>
@@ -23260,13 +23260,13 @@
         <v>1124</v>
       </c>
       <c r="C451" s="4" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
       <c r="D451" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E451" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F451" t="str">
         <f t="shared" ref="F451:F510" si="14">IFERROR(LEFT(X451, SEARCH("2025", X451) + 3), X451)</f>
@@ -23300,13 +23300,13 @@
         <v>1127</v>
       </c>
       <c r="C452" s="4" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="D452" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E452" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F452" t="str">
         <f t="shared" si="14"/>
@@ -23340,13 +23340,13 @@
         <v>1129</v>
       </c>
       <c r="C453" s="4" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
       <c r="D453" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E453" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F453" t="str">
         <f t="shared" si="14"/>
@@ -23380,13 +23380,13 @@
         <v>490</v>
       </c>
       <c r="C454" s="4" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="D454" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E454" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F454" t="str">
         <f t="shared" si="14"/>
@@ -23420,13 +23420,13 @@
         <v>1133</v>
       </c>
       <c r="C455" s="4" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="D455" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E455" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F455" t="str">
         <f t="shared" si="14"/>
@@ -23460,13 +23460,13 @@
         <v>1136</v>
       </c>
       <c r="C456" s="4" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="D456" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E456" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F456" t="str">
         <f t="shared" si="14"/>
@@ -23500,13 +23500,13 @@
         <v>1140</v>
       </c>
       <c r="C457" s="4" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="D457" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E457" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F457" t="str">
         <f t="shared" si="14"/>
@@ -23540,13 +23540,13 @@
         <v>1143</v>
       </c>
       <c r="C458" s="4" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
       <c r="D458" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E458" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F458" t="str">
         <f t="shared" si="14"/>
@@ -23580,13 +23580,13 @@
         <v>1147</v>
       </c>
       <c r="C459" s="4" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="D459" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E459" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F459" t="str">
         <f t="shared" si="14"/>
@@ -23620,13 +23620,13 @@
         <v>1150</v>
       </c>
       <c r="C460" s="4" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="D460" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E460" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F460" t="str">
         <f t="shared" si="14"/>
@@ -23660,13 +23660,13 @@
         <v>1153</v>
       </c>
       <c r="C461" s="4" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="D461" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E461" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F461" t="str">
         <f t="shared" si="14"/>
@@ -23700,13 +23700,13 @@
         <v>1155</v>
       </c>
       <c r="C462" s="4" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="D462" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E462" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F462" t="str">
         <f t="shared" si="14"/>
@@ -23740,13 +23740,13 @@
         <v>1158</v>
       </c>
       <c r="C463" s="4" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="D463" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E463" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F463" t="str">
         <f t="shared" si="14"/>
@@ -23780,13 +23780,13 @@
         <v>1161</v>
       </c>
       <c r="C464" s="4" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="D464" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E464" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F464" t="str">
         <f t="shared" si="14"/>
@@ -23820,13 +23820,13 @@
         <v>1163</v>
       </c>
       <c r="C465" s="4" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
       <c r="D465" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E465" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F465" t="str">
         <f t="shared" si="14"/>
@@ -23860,13 +23860,13 @@
         <v>1166</v>
       </c>
       <c r="C466" s="4" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
       <c r="D466" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E466" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F466" t="str">
         <f t="shared" si="14"/>
@@ -23900,13 +23900,13 @@
         <v>1169</v>
       </c>
       <c r="C467" s="4" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="D467" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E467" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F467" t="str">
         <f t="shared" si="14"/>
@@ -23940,13 +23940,13 @@
         <v>546</v>
       </c>
       <c r="C468" s="4" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="D468" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E468" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F468" t="str">
         <f t="shared" si="14"/>
@@ -23980,13 +23980,13 @@
         <v>1173</v>
       </c>
       <c r="C469" s="4" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="D469" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E469" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F469" t="str">
         <f t="shared" si="14"/>
@@ -24020,13 +24020,13 @@
         <v>1176</v>
       </c>
       <c r="C470" s="7" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="D470" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E470" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F470" t="str">
         <f t="shared" si="14"/>
@@ -24060,13 +24060,13 @@
         <v>1179</v>
       </c>
       <c r="C471" s="4" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="D471" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E471" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F471" t="str">
         <f t="shared" si="14"/>
@@ -24100,13 +24100,13 @@
         <v>1179</v>
       </c>
       <c r="C472" s="4" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="D472" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E472" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F472" t="str">
         <f t="shared" si="14"/>
@@ -24140,13 +24140,13 @@
         <v>1181</v>
       </c>
       <c r="C473" s="4" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="D473" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E473" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F473" t="str">
         <f t="shared" si="14"/>
@@ -24180,13 +24180,13 @@
         <v>1184</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
       <c r="D474" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E474" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F474" t="str">
         <f t="shared" si="14"/>
@@ -24220,13 +24220,13 @@
         <v>1187</v>
       </c>
       <c r="C475" s="4" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="D475" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E475" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F475" t="str">
         <f t="shared" si="14"/>
@@ -24260,13 +24260,13 @@
         <v>556</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="D476" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E476" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F476" t="str">
         <f t="shared" si="14"/>
@@ -24300,13 +24300,13 @@
         <v>1191</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="D477" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E477" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F477" t="str">
         <f t="shared" si="14"/>
@@ -24340,13 +24340,13 @@
         <v>1194</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="D478" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E478" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F478" t="str">
         <f t="shared" si="14"/>
@@ -24380,13 +24380,13 @@
         <v>1197</v>
       </c>
       <c r="C479" s="4" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="D479" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E479" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F479" t="str">
         <f t="shared" si="14"/>
@@ -24420,13 +24420,13 @@
         <v>1200</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="D480" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E480" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F480" t="str">
         <f t="shared" si="14"/>
@@ -24460,13 +24460,13 @@
         <v>1202</v>
       </c>
       <c r="C481" s="4" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="D481" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E481" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F481" t="str">
         <f t="shared" si="14"/>
@@ -24500,13 +24500,13 @@
         <v>1173</v>
       </c>
       <c r="C482" s="4" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="D482" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E482" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F482" t="str">
         <f t="shared" si="14"/>
@@ -24540,13 +24540,13 @@
         <v>1197</v>
       </c>
       <c r="C483" s="4" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="D483" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E483" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F483" t="str">
         <f t="shared" si="14"/>
@@ -24580,13 +24580,13 @@
         <v>1200</v>
       </c>
       <c r="C484" s="4" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="D484" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E484" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F484" t="str">
         <f t="shared" si="14"/>
@@ -24620,13 +24620,13 @@
         <v>1184</v>
       </c>
       <c r="C485" s="4" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
       <c r="D485" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E485" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F485" t="str">
         <f t="shared" si="14"/>
@@ -24660,13 +24660,13 @@
         <v>1209</v>
       </c>
       <c r="C486" s="4" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="D486" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E486" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F486" t="str">
         <f t="shared" si="14"/>
@@ -24700,13 +24700,13 @@
         <v>1212</v>
       </c>
       <c r="C487" s="4" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="D487" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E487" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F487" t="str">
         <f t="shared" si="14"/>
@@ -24740,13 +24740,13 @@
         <v>556</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="D488" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E488" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F488" t="str">
         <f t="shared" si="14"/>
@@ -24780,13 +24780,13 @@
         <v>1191</v>
       </c>
       <c r="C489" s="4" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="D489" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E489" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F489" t="str">
         <f t="shared" si="14"/>
@@ -24820,13 +24820,13 @@
         <v>1194</v>
       </c>
       <c r="C490" s="4" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="D490" s="4" t="s">
-        <v>1267</v>
+        <v>1598</v>
       </c>
       <c r="E490" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F490" t="str">
         <f t="shared" si="14"/>
@@ -24860,13 +24860,13 @@
         <v>1217</v>
       </c>
       <c r="C491" s="4" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="D491" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E491" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F491" t="str">
         <f t="shared" si="14"/>
@@ -24900,13 +24900,13 @@
         <v>1217</v>
       </c>
       <c r="C492" s="4" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="D492" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E492" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F492" t="str">
         <f t="shared" si="14"/>
@@ -24940,13 +24940,13 @@
         <v>1181</v>
       </c>
       <c r="C493" s="4" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="D493" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E493" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F493" t="str">
         <f t="shared" si="14"/>
@@ -24980,13 +24980,13 @@
         <v>1202</v>
       </c>
       <c r="C494" s="4" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="D494" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E494" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F494" t="str">
         <f t="shared" si="14"/>
@@ -25020,13 +25020,13 @@
         <v>1221</v>
       </c>
       <c r="C495" s="4" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="D495" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E495" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F495" t="str">
         <f t="shared" si="14"/>
@@ -25060,13 +25060,13 @@
         <v>1224</v>
       </c>
       <c r="C496" s="4" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="D496" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E496" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F496" t="str">
         <f t="shared" si="14"/>
@@ -25100,13 +25100,13 @@
         <v>1228</v>
       </c>
       <c r="C497" s="4" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="D497" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E497" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F497" t="str">
         <f t="shared" si="14"/>
@@ -25140,13 +25140,13 @@
         <v>1230</v>
       </c>
       <c r="C498" s="4" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="D498" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E498" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F498" t="str">
         <f t="shared" si="14"/>
@@ -25180,13 +25180,13 @@
         <v>1233</v>
       </c>
       <c r="C499" s="4" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="D499" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E499" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F499" t="str">
         <f t="shared" si="14"/>
@@ -25220,13 +25220,13 @@
         <v>1235</v>
       </c>
       <c r="C500" s="4" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="D500" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E500" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F500" t="str">
         <f t="shared" si="14"/>
@@ -25260,13 +25260,13 @@
         <v>1238</v>
       </c>
       <c r="C501" s="4" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="D501" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E501" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F501" t="str">
         <f t="shared" si="14"/>
@@ -25300,13 +25300,13 @@
         <v>1241</v>
       </c>
       <c r="C502" s="4" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="D502" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E502" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F502" t="str">
         <f t="shared" si="14"/>
@@ -25340,13 +25340,13 @@
         <v>1244</v>
       </c>
       <c r="C503" s="4" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="D503" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E503" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F503" t="str">
         <f t="shared" si="14"/>
@@ -25380,13 +25380,13 @@
         <v>1247</v>
       </c>
       <c r="C504" s="4" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="D504" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E504" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F504" t="str">
         <f t="shared" si="14"/>
@@ -25420,13 +25420,13 @@
         <v>1250</v>
       </c>
       <c r="C505" s="4" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="D505" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E505" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F505" t="str">
         <f t="shared" si="14"/>
@@ -25460,13 +25460,13 @@
         <v>1252</v>
       </c>
       <c r="C506" s="4" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="D506" s="4" t="s">
-        <v>1265</v>
+        <v>1596</v>
       </c>
       <c r="E506" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F506" t="str">
         <f t="shared" si="14"/>
@@ -25500,13 +25500,13 @@
         <v>1255</v>
       </c>
       <c r="C507" s="4" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="D507" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E507" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F507" t="str">
         <f t="shared" si="14"/>
@@ -25540,13 +25540,13 @@
         <v>1257</v>
       </c>
       <c r="C508" s="4" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D508" s="4" t="s">
         <v>1598</v>
       </c>
-      <c r="D508" s="4" t="s">
-        <v>1267</v>
-      </c>
       <c r="E508" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F508" t="str">
         <f t="shared" si="14"/>
@@ -25580,13 +25580,13 @@
         <v>1260</v>
       </c>
       <c r="C509" s="4" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="D509" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E509" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F509" t="str">
         <f t="shared" si="14"/>
@@ -25620,13 +25620,13 @@
         <v>1263</v>
       </c>
       <c r="C510" s="4" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="D510" s="4" t="s">
-        <v>1266</v>
+        <v>1597</v>
       </c>
       <c r="E510" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F510" t="str">
         <f t="shared" si="14"/>
